--- a/meta/en/8-1-1.xlsx
+++ b/meta/en/8-1-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>(0312) 32 46 95</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>GDP per capita is the nominal value of goods and services produced over a period of time per person of gross domestic product.</t>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -661,7 +661,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -735,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -743,7 +743,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -765,7 +765,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
